--- a/bots/crawl_ch/output/bread_coop_2023-03-12.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-12.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3216,24 +3216,24 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4287291</t>
+          <t>4287115</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vollreiswaffeln mit Salz</t>
+          <t>Naturaplan Bio Pagnolbrot hell</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/vollreiswaffeln-mit-salz/p/4287291</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-pagnolbrot-hell/p/4287115</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.85/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Vollreiswaffeln mit Salz 20% ab 2 Aktion 1.10 Schweizer Franken</t>
+          <t>Naturaplan Bio Pagnolbrot hell 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3289,24 +3289,24 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4287115</t>
+          <t>4287291</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pagnolbrot hell</t>
+          <t>Vollreiswaffeln mit Salz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-pagnolbrot-hell/p/4287115</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/vollreiswaffeln-mit-salz/p/4287291</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>0.85/100g</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pagnolbrot hell 3.30 Schweizer Franken</t>
+          <t>Vollreiswaffeln mit Salz 20% ab 2 Aktion 1.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5224,31 +5224,31 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6727871</t>
+          <t>3942006</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bio Chrustenkranz</t>
+          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/bio-chrustenkranz/p/6727871</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-bitterschokolade-mini/p/3942006</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.80/100g</t>
+          <t>3.67/100g</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5282,60 +5282,60 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Bio Chrustenkranz 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini 20% ab 2 Aktion 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3942006</t>
+          <t>6116952</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini</t>
+          <t>Dar-Vida Cracker Tomate &amp;amp; Basilikum</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-bitterschokolade-mini/p/3942006</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-tomate-basilikum/p/6116952</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3.67/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5355,60 +5355,56 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini 20% ab 2 Aktion 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Cracker Tomate &amp;amp; Basilikum 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6116952</t>
+          <t>6727871</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Tomate &amp;amp; Basilikum</t>
+          <t>Bio Chrustenkranz</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-tomate-basilikum/p/6116952</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/bio-chrustenkranz/p/6727871</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E70" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>0.80/100g</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5418,7 +5414,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5428,18 +5424,22 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Tomate &amp;amp; Basilikum 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>Bio Chrustenkranz 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5727,31 +5727,31 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4136769</t>
+          <t>4454371</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Apfel Reiswaffeln</t>
+          <t>Naturaplan Bio Vollkornbrot</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-apfel-reiswaffeln/p/4136769</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-vollkornbrot/p/4454371</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -5760,12 +5760,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5785,46 +5785,46 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Apfel Reiswaffeln 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkornbrot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4454371</t>
+          <t>4136769</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkornbrot</t>
+          <t>JaMaDu Fairtrade Apfel Reiswaffeln</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-vollkornbrot/p/4454371</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-apfel-reiswaffeln/p/4136769</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5833,12 +5833,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5858,22 +5858,22 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkornbrot 2.50 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Apfel Reiswaffeln 20% ab 2 Aktion 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6364,31 +6364,31 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3942004</t>
+          <t>6033606</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini</t>
+          <t>Naturaplan Bio Huusbrot hell</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-milchschokolade-mini/p/3942004</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6033606</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -6397,12 +6397,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3.67/100g</t>
+          <t>0.58/100g</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6422,46 +6422,46 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini 20% ab 2 Aktion 2.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Huusbrot hell 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6033606</t>
+          <t>3942004</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell</t>
+          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6033606</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-milchschokolade-mini/p/3942004</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -6470,12 +6470,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.58/100g</t>
+          <t>3.67/100g</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6495,22 +6495,22 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell 2.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Milchschokolade Mini 20% ab 2 Aktion 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7366,31 +7366,31 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6820606</t>
+          <t>6638079</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
+          <t>Prix Garantie Milchbrötli mit Schokolade 8 Stück</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820606</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-milchbroetli-mit-schokolade-8-stueck/p/6638079</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>0.77/100g</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7424,46 +7424,42 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Milchbrötli mit Schokolade 8 Stück 2.15 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6638079</t>
+          <t>6820606</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Prix Garantie Milchbrötli mit Schokolade 8 Stück</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-milchbroetli-mit-schokolade-8-stueck/p/6638079</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820606</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -7472,12 +7468,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.77/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7487,7 +7483,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7497,18 +7493,22 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Prix Garantie Milchbrötli mit Schokolade 8 Stück 2.15 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9151,45 +9151,45 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3023436</t>
+          <t>6797336</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E123" t="n">
         <v>4.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1.38/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9209,56 +9209,56 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit 30% ab 2 Aktion 6.90 Schweizer Franken</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück 20% Aktion 7.35 Schweizer Franken statt 9.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3725523</t>
+          <t>3023436</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm</t>
+          <t>Old El Paso Fajita Kit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm/p/3725523</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E124" t="n">
         <v>4.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>1.38/100g</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9278,50 +9278,46 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Fajita Kit 30% ab 2 Aktion 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6383995</t>
+          <t>3725523</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm/p/3725523</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E125" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -9331,7 +9327,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9341,7 +9337,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -9351,56 +9347,60 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3042398</t>
+          <t>6383995</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mini Panettone</t>
+          <t>Bauli Croissant Apricot 6 Stück</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/mini-panettone/p/3042398</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-apricot-6-stueck/p/6383995</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E126" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9425,51 +9425,51 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Mini Panettone 1.60 Schweizer Franken</t>
+          <t>Bauli Croissant Apricot 6 Stück 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6797336</t>
+          <t>3042398</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
+          <t>Mini Panettone</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/mini-panettone/p/3042398</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E127" t="n">
         <v>4.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9489,18 +9489,18 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück 20% Aktion 7.35 Schweizer Franken statt 9.20 Schweizer Franken</t>
+          <t>Mini Panettone 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10056,45 +10056,45 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>4842206</t>
+          <t>6064661</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dar-Vida Honig extra fin</t>
+          <t>Naturaplan Bio Huusbrot hell</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-honig-extra-fin/p/4842206</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6064661</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E136" t="n">
         <v>4.5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10114,56 +10114,60 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Dar-Vida Honig extra fin 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
+          <t>Naturaplan Bio Huusbrot hell 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6064661</t>
+          <t>4842206</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell</t>
+          <t>Dar-Vida Honig extra fin</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/naturaplan-bio-huusbrot-hell/p/6064661</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-honig-extra-fin/p/4842206</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E137" t="n">
         <v>4.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10173,7 +10177,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10183,22 +10187,18 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Huusbrot hell 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Honig extra fin 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11630,7 +11630,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11699,7 +11699,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11831,13 +11831,13 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen Schoko 8 Stück 50% ab 2 Aktion 3.20 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen Schoko 8 Stück - Online kein Bestand 50% ab 2 Aktion 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12340,7 +12340,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12482,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12624,7 +12624,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13738,13 +13738,13 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 40% Aktion 4.50 Schweizer Franken statt 7.50 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück - Online kein Bestand 40% Aktion 4.50 Schweizer Franken statt 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14166,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14235,7 +14235,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -14819,45 +14819,45 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>6629227</t>
+          <t>6797332</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E203" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.60/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14877,56 +14877,56 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück 30% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6668457</t>
+          <t>6629227</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E204" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.53/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14946,60 +14946,56 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso Tortilla Pockets 8 Stück 30% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6797332</t>
+          <t>6668457</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2.60/100g</t>
+          <t>0.53/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15009,7 +15005,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15019,18 +15015,22 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N205" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15237,45 +15237,45 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Labeyrie Cocktail Blinis 20 Stück</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/labeyrie-cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E209" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Labeyrie</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>3.75/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15295,60 +15295,56 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Labeyrie Cocktail Blinis 20 Stück 6.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Labeyrie Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/labeyrie-cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Labeyrie</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.75/100g</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15358,7 +15354,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15368,18 +15364,22 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr"/>
+          <t>Labeyrie Cocktail Blinis 20 Stück 6.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17148,45 +17148,45 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E236" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17206,56 +17206,60 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E237" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17265,7 +17269,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17275,22 +17279,18 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17576,7 +17576,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17645,45 +17645,45 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E243" t="n">
         <v>4.5</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17693,7 +17693,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17703,60 +17703,56 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 16 Stück 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E244" t="n">
         <v>4.5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17766,7 +17762,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17776,18 +17772,22 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N244" t="inlineStr"/>
+          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -17929,7 +17929,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18075,45 +18075,45 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E249" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18133,60 +18133,56 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 20% ab 2 Aktion 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E250" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18196,7 +18192,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18206,18 +18202,22 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N250" t="inlineStr"/>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18497,7 +18497,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18566,7 +18566,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18635,7 +18635,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18777,7 +18777,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18850,7 +18850,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18919,7 +18919,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -18992,7 +18992,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19059,7 +19059,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19128,7 +19128,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19343,7 +19343,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19412,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19481,7 +19481,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19554,28 +19554,28 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E270" t="n">
         <v>4.5</v>
@@ -19587,12 +19587,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19602,7 +19602,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19612,43 +19612,39 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E271" t="n">
         <v>4.5</v>
@@ -19660,12 +19656,12 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19675,7 +19671,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19685,18 +19681,22 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N271" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19769,7 +19769,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19838,7 +19838,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19905,7 +19905,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -19972,7 +19972,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20041,7 +20041,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20110,7 +20110,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20179,45 +20179,45 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20237,60 +20237,60 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E280" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20300,7 +20300,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20310,46 +20310,42 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -20358,12 +20354,12 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>0.48/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20373,7 +20369,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20383,56 +20379,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>0.48/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20442,7 +20438,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20452,18 +20448,22 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20601,45 +20601,45 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E285" t="n">
         <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20659,56 +20659,60 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 30% ab 2 Aktion 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E286" t="n">
         <v>4.5</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20718,7 +20722,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20728,22 +20732,18 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 30% ab 2 Aktion 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21027,7 +21027,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21169,45 +21169,45 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21217,7 +21217,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21227,56 +21227,56 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Panettone 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21296,18 +21296,18 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21522,7 +21522,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21660,45 +21660,45 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21718,60 +21718,60 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21791,22 +21791,22 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 4.20 Schweizer Franken</t>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -21942,24 +21942,24 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>6539826</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6539826</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
@@ -21968,17 +21968,17 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21998,56 +21998,54 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Butterzopf 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
       <c r="E305" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22057,7 +22055,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22067,56 +22065,56 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 30% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22126,7 +22124,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22136,54 +22134,56 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Old El Paso Enchilada Kit 30% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6539826</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6539826</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>9</v>
+      </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22193,7 +22193,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22203,18 +22203,18 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Butterzopf 3.90 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22431,7 +22431,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22500,7 +22500,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22569,7 +22569,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22638,7 +22638,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22705,7 +22705,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22774,7 +22774,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22910,7 +22910,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -22979,7 +22979,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -23048,7 +23048,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -23121,45 +23121,43 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>6540261</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6540261</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>0.84/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23169,7 +23167,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23179,60 +23177,56 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Butterzopf 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23242,7 +23236,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23252,22 +23246,22 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -23336,45 +23330,45 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23384,7 +23378,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23394,54 +23388,60 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>6540261</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/6540261</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>7</v>
+      </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>0.84/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23461,56 +23461,56 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Butterzopf 2.70 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23520,7 +23520,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23535,13 +23535,13 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -23687,7 +23687,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -23756,45 +23756,43 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
-        </is>
-      </c>
-      <c r="D330" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23804,7 +23802,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23814,54 +23812,60 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr"/>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>2</v>
+      </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23871,7 +23875,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23881,60 +23885,54 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Choco Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
-        </is>
-      </c>
-      <c r="D332" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
       <c r="E332" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23944,7 +23942,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23954,54 +23952,56 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
       <c r="E333" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24011,7 +24011,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24021,18 +24021,18 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24105,7 +24105,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24174,35 +24174,33 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>7068603</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
-        </is>
-      </c>
-      <c r="D336" t="n">
-        <v>23</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/7068603</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -24212,7 +24210,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.71/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24222,7 +24220,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24232,60 +24230,56 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Butterzopf 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>7031407</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-dinkel-pizzateig-rechteckig/p/7031407</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E337" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24295,7 +24289,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24305,44 +24299,46 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Pizzateig rechteckig 3.30 Schweizer Franken</t>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>7068603</t>
+          <t>7031407</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/7068603</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-dinkel-pizzateig-rechteckig/p/7031407</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -24351,12 +24347,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>0.71/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24366,7 +24362,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24376,18 +24372,22 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Butterzopf 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Pizzateig rechteckig 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24598,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24872,7 +24872,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -24941,7 +24941,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25010,7 +25010,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25359,7 +25359,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25704,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -25915,45 +25915,45 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E361" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25973,56 +25973,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26032,7 +26032,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26042,18 +26042,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -26126,45 +26126,45 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E364" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26174,7 +26174,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26184,60 +26184,56 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 30% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 30% ab 2 Aktion 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26247,7 +26243,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26257,56 +26253,58 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 30% ab 2 Aktion 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr"/>
+          <t>Old El Paso Fajita Kit Gluten Free 30% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
-        </is>
-      </c>
-      <c r="D366" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26316,7 +26314,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26326,58 +26324,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>2</v>
+      </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26387,7 +26383,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26397,18 +26393,22 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -26481,7 +26481,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -26550,7 +26550,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -26617,7 +26617,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -26684,7 +26684,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -26757,45 +26757,43 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6515840</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Bauli Croissant Classico 6 Stück</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
-        </is>
-      </c>
-      <c r="D373" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauli</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26805,7 +26803,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26815,56 +26813,56 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Bauli Croissant Classico 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E374" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26874,7 +26872,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26884,54 +26882,56 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6515840</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/bauli-croissant-classico-6-stueck/p/6515840</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>3</v>
+      </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bauli</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26951,18 +26951,18 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Bauli Croissant Classico 6 Stück 2.95 Schweizer Franken</t>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27031,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27100,7 +27100,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27173,7 +27173,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27242,7 +27242,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27311,7 +27311,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27378,7 +27378,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27447,7 +27447,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27514,7 +27514,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27581,7 +27581,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27648,7 +27648,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
@@ -27715,24 +27715,24 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6689542</t>
+          <t>6677401</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen</t>
+          <t>Ostertaube</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677401</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
@@ -27746,12 +27746,12 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.36/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27771,42 +27771,40 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
+          <t>Ostertaube 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6689542</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Betty Bossi Osterkuchen</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D388" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/oster-suessigkeiten/ostergebaeck/betty-bossi-osterkuchen/p/6689542</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
       <c r="E388" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27815,12 +27813,12 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.36/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27830,7 +27828,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27840,46 +27838,42 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'oster-suessigkeiten', 'ostergebaeck']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Osterkuchen - Online kein Bestand 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E389" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -27888,12 +27882,12 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27903,7 +27897,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27913,40 +27907,46 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6677401</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ostertaube</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/ostertaube/p/6677401</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>3</v>
+      </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -27970,7 +27970,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27980,18 +27980,18 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Ostertaube 4.95 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-12 06:49:31</t>
+          <t>2023-03-12 12:54:55</t>
         </is>
       </c>
     </row>
